--- a/mapa.xlsx
+++ b/mapa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\L&amp;A Over the world\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E973360D-858B-4CB9-93B6-4D653923FF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>city</t>
   </si>
@@ -28,47 +22,53 @@
     <t>country</t>
   </si>
   <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>bullets</t>
   </si>
   <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Fernando de Noronha</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
     <t>Brasil</t>
   </si>
   <si>
-    <t>França</t>
+    <t>Lara &amp; Armando</t>
+  </si>
+  <si>
+    <t>Armando</t>
   </si>
   <si>
     <t>Lara</t>
   </si>
   <si>
-    <t>Lara &amp; Armando</t>
-  </si>
-  <si>
     <t>2023-05-10: Evento A; 2023-07-22: Encontro com equipe</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>Alemanha</t>
-  </si>
-  <si>
-    <t>Armado</t>
-  </si>
-  <si>
-    <t>Fernando de Noronha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,12 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -134,21 +131,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -220,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,16 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,102 +438,72 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>44.8378</v>
+      </c>
+      <c r="D2">
+        <v>-0.5792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>51.3397</v>
+      </c>
+      <c r="D3">
+        <v>12.3731</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C4">
+        <v>-3.857</v>
+      </c>
+      <c r="D4">
+        <v>-32.429</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
